--- a/Ejercicio complementario/Sector_Venta.xlsx
+++ b/Ejercicio complementario/Sector_Venta.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udbedu-my.sharepoint.com/personal/tb181979_alumno_udb_edu_sv/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Desktop\UDB\Datawarehouse y Minería de datos\Proyecto_ETL_TB181979\EjercicioComplementario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{058DAA68-09DC-49AE-A829-425B022223B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F31AB-1539-4F9C-8D87-866FD74BA6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,18 +50,12 @@
     <t>SVEN1</t>
   </si>
   <si>
-    <t>Ventas Internas</t>
-  </si>
-  <si>
     <t>Oostende</t>
   </si>
   <si>
     <t>SVEN2</t>
   </si>
   <si>
-    <t>Ventas externas</t>
-  </si>
-  <si>
     <t>Opprebais</t>
   </si>
   <si>
@@ -111,13 +105,19 @@
   </si>
   <si>
     <t>Dessau</t>
+  </si>
+  <si>
+    <t>Internas</t>
+  </si>
+  <si>
+    <t>externas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -463,10 +463,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -474,7 +474,7 @@
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,174 +491,174 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>67416</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>59533</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>35549</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>14603</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>96611</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>52293</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>70428</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>47931</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>86662</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>93974</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -670,12 +670,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,19 +847,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{490854CC-97F3-48B0-B34C-CAD1058856C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9316ABB6-2BD6-45DE-A899-00A58FDC33FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0A22C58-1AD9-4459-8A7C-FB3FA9EFCF5D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0A22C58-1AD9-4459-8A7C-FB3FA9EFCF5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f46881c-4e27-488c-8a51-e38bb783fc59"/>
+    <ds:schemaRef ds:uri="dbbbb2fc-87e5-4918-9977-d9c9948c4104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9316ABB6-2BD6-45DE-A899-00A58FDC33FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{490854CC-97F3-48B0-B34C-CAD1058856C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>